--- a/data/management/Management_information_HAN_2018.xlsx
+++ b/data/management/Management_information_HAN_2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827BB7AD-D0C2-E44E-BE5B-A298779931D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21315" windowHeight="10050"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="34860" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="125">
   <si>
     <t>General information</t>
   </si>
@@ -234,12 +240,6 @@
     <t>1st nitrogen application</t>
   </si>
   <si>
-    <t>50 kg N/ha</t>
-  </si>
-  <si>
-    <t>KAS</t>
-  </si>
-  <si>
     <t>1st herbicide</t>
   </si>
   <si>
@@ -276,15 +276,6 @@
     <t>Leaf_rust</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>27kg/ha MgO</t>
-  </si>
-  <si>
-    <t>Kierserit 25/20</t>
-  </si>
-  <si>
     <t>2nd application of insecticide</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
     <t>Septoria</t>
   </si>
   <si>
-    <t>22 kg/ha S</t>
-  </si>
-  <si>
     <t>Kieserit</t>
   </si>
   <si>
@@ -312,9 +300,6 @@
     <t>DTR</t>
   </si>
   <si>
-    <t>71 kg/ha</t>
-  </si>
-  <si>
     <t>PK 12/24</t>
   </si>
   <si>
@@ -324,9 +309,6 @@
     <t>Fusarium</t>
   </si>
   <si>
-    <t>142 kg/ha</t>
-  </si>
-  <si>
     <t>3rd application of fungicide</t>
   </si>
   <si>
@@ -354,12 +336,6 @@
     <t>high nitrogen, no fungicide (HN_NF)</t>
   </si>
   <si>
-    <t>32,5 kgN/ha</t>
-  </si>
-  <si>
-    <t>60 kg N / ha</t>
-  </si>
-  <si>
     <t>0,3 l</t>
   </si>
   <si>
@@ -375,15 +351,6 @@
     <t>high nitrogen, with fungicide (HN_WF)</t>
   </si>
   <si>
-    <t>50 kgN/ha</t>
-  </si>
-  <si>
-    <t>43 kgN/ha</t>
-  </si>
-  <si>
-    <t>60 kgN/ha</t>
-  </si>
-  <si>
     <t>Bullock</t>
   </si>
   <si>
@@ -415,12 +382,27 @@
   </si>
   <si>
     <t>Winter wheat</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>1st phosphor application</t>
+  </si>
+  <si>
+    <t>1st potassium application</t>
+  </si>
+  <si>
+    <t>1st sulfur application</t>
+  </si>
+  <si>
+    <t>1st magnesium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-407]mmm/\ yy;@"/>
   </numFmts>
@@ -612,7 +594,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
@@ -675,12 +657,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38"/>
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,14 +673,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -733,7 +721,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -805,7 +793,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -978,34 +966,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.140625" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1001,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1021,7 +1009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1061,7 +1049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1069,19 +1057,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1113,21 +1101,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1136,7 +1124,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1145,7 +1133,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1156,7 +1144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1165,7 +1153,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -1174,23 +1162,23 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -1199,7 +1187,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -1208,7 +1196,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -1217,7 +1205,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -1226,7 +1214,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1235,7 +1223,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -1244,7 +1232,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -1255,7 +1243,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1254,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -1275,7 +1263,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -1286,7 +1274,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
@@ -1297,7 +1285,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
@@ -1308,7 +1296,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
@@ -1319,14 +1307,14 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>61</v>
       </c>
@@ -1341,7 +1329,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>62</v>
       </c>
@@ -1376,7 +1364,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -1386,37 +1374,37 @@
       <c r="C44" s="14">
         <v>43206</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="15">
+        <v>50</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="G44" s="18">
         <v>43195</v>
       </c>
       <c r="H44" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="K44" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="22">
         <v>43227</v>
@@ -1426,24 +1414,24 @@
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K45" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" s="22">
         <v>43237</v>
@@ -1453,139 +1441,149 @@
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G46" s="18">
         <v>43235</v>
       </c>
       <c r="H46" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="K46" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C47" s="22">
         <v>43194</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="D47" s="16">
+        <v>27</v>
+      </c>
+      <c r="E47" s="28" t="s">
         <v>88</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G47" s="18">
         <v>43250</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K47" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24" t="s">
-        <v>93</v>
+      <c r="B48" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="22">
+        <v>43194</v>
+      </c>
+      <c r="D48" s="28">
+        <v>22</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K48" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="C49" s="22">
         <v>43194</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>98</v>
+      <c r="D49" s="16">
+        <v>71</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="16" t="s">
-        <v>102</v>
+      <c r="B50" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="22">
+        <v>43194</v>
+      </c>
+      <c r="D50" s="16">
+        <v>142</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -1594,21 +1592,21 @@
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G51" s="18">
         <v>43217</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -1617,21 +1615,21 @@
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G52" s="18">
         <v>43235</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -1639,9 +1637,9 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>63</v>
@@ -1674,9 +1672,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -1684,256 +1682,266 @@
       <c r="C55" s="14">
         <v>43206</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="15">
+        <v>50</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="G55" s="18">
         <v>43195</v>
       </c>
       <c r="H55" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J55" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="K55" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="22">
         <v>43227</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>112</v>
+      <c r="D56" s="16">
+        <v>32.5</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K56" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C57" s="22">
         <v>43237</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>113</v>
+      <c r="D57" s="16">
+        <v>60</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G57" s="18">
         <v>43235</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K57" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C58" s="22">
         <v>43194</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="16" t="s">
+      <c r="D58" s="16">
+        <v>27</v>
+      </c>
+      <c r="E58" s="28" t="s">
         <v>88</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G58" s="18">
         <v>43250</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K58" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="22">
+        <v>43194</v>
+      </c>
+      <c r="D59" s="28">
+        <v>22</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K59" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="C60" s="22">
         <v>43194</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>98</v>
+      <c r="D60" s="16">
+        <v>71</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="22">
+        <v>43194</v>
+      </c>
+      <c r="D61" s="16">
+        <v>142</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G62" s="18">
         <v>43217</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G63" s="18">
         <v>43235</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
@@ -1941,9 +1949,9 @@
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
     </row>
-    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>63</v>
@@ -1976,9 +1984,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -1986,268 +1994,278 @@
       <c r="C66" s="14">
         <v>43206</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>119</v>
+      <c r="D66" s="16">
+        <v>50</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G66" s="18">
         <v>43195</v>
       </c>
       <c r="H66" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J66" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="K66" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="22">
         <v>43227</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="16">
+        <v>43</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="F67" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K67" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" s="22">
         <v>43237</v>
       </c>
-      <c r="D68" s="16" t="s">
-        <v>121</v>
+      <c r="D68" s="16">
+        <v>60</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G68" s="18">
         <v>43235</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K68" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C69" s="22">
         <v>43194</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E69" s="16" t="s">
+      <c r="D69" s="16">
+        <v>27</v>
+      </c>
+      <c r="E69" s="28" t="s">
         <v>88</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G69" s="18">
         <v>43250</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K69" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24" t="s">
-        <v>93</v>
+        <v>108</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="22">
+        <v>43194</v>
+      </c>
+      <c r="D70" s="28">
+        <v>22</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G70" s="18">
         <v>43217</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="J70" s="20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K70" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="C71" s="22">
         <v>43194</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>98</v>
+      <c r="D71" s="16">
+        <v>71</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G71" s="18">
         <v>43235</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K71" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="16" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="22">
+        <v>43194</v>
+      </c>
+      <c r="D72" s="16">
+        <v>142</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G72" s="18">
         <v>43250</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
       <c r="F73" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G73" s="18">
         <v>43217</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G74" s="18">
         <v>43235</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J74" s="20"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
@@ -2255,7 +2273,7 @@
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
@@ -2263,9 +2281,9 @@
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
     </row>
-    <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>63</v>
@@ -2298,9 +2316,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -2308,37 +2326,37 @@
       <c r="C78" s="14">
         <v>43206</v>
       </c>
-      <c r="D78" s="16" t="s">
-        <v>119</v>
+      <c r="D78" s="16">
+        <v>50</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G78" s="18">
         <v>43195</v>
       </c>
       <c r="H78" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J78" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="I78" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J78" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="K78" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C79" s="22">
         <v>43227</v>
@@ -2346,28 +2364,26 @@
       <c r="D79" s="23">
         <v>0</v>
       </c>
-      <c r="E79" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="E79" s="16"/>
       <c r="F79" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K79" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C80" s="22">
         <v>43237</v>
@@ -2377,192 +2393,202 @@
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G80" s="18">
         <v>43235</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K80" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C81" s="22">
         <v>43194</v>
       </c>
-      <c r="D81" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" s="16" t="s">
+      <c r="D81" s="16">
+        <v>27</v>
+      </c>
+      <c r="E81" s="28" t="s">
         <v>88</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G81" s="18">
         <v>43250</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K81" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24" t="s">
-        <v>93</v>
+        <v>116</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="22">
+        <v>43194</v>
+      </c>
+      <c r="D82" s="28">
+        <v>22</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G82" s="18">
         <v>43217</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="J82" s="20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K82" s="21">
         <v>43263</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="C83" s="22">
         <v>43194</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>98</v>
+      <c r="D83" s="16">
+        <v>71</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G83" s="18">
         <v>43235</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J83" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K83" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="16" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="22">
+        <v>43194</v>
+      </c>
+      <c r="D84" s="16">
+        <v>142</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G84" s="18">
         <v>43250</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G85" s="18">
         <v>43217</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G86" s="18">
         <v>43235</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
@@ -2573,24 +2599,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/management/Management_information_HAN_2018.xlsx
+++ b/data/management/Management_information_HAN_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827BB7AD-D0C2-E44E-BE5B-A298779931D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E1A29E-1754-254D-A558-D306411C649E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="34860" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>Preceding crop</t>
   </si>
   <si>
-    <t>Mais</t>
-  </si>
-  <si>
     <t>Pre-Preceding crop</t>
   </si>
   <si>
@@ -381,9 +378,6 @@
     <t>0,75 l/ha</t>
   </si>
   <si>
-    <t>Winter wheat</t>
-  </si>
-  <si>
     <t>CAN</t>
   </si>
   <si>
@@ -397,6 +391,12 @@
   </si>
   <si>
     <t>1st magnesium</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>winter wheat</t>
   </si>
 </sst>
 </file>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1158,38 +1158,38 @@
         <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="7">
         <v>0.13700000000000001</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="7">
         <v>7.4999999999999997E-2</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="7">
         <v>0.78800000000000003</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="6">
         <v>7.1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7">
         <v>2.6800000000000001E-2</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="C33" s="8">
         <v>43160</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C34" s="8">
         <v>43160</v>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C36" s="9">
         <v>43178</v>
@@ -1276,10 +1276,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="C37" s="9">
         <v>43178</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="C38" s="9">
         <v>43178</v>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="C39" s="9">
         <v>43178</v>
@@ -1309,14 +1309,14 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1331,45 +1331,45 @@
     </row>
     <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="G43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J43" s="11" t="s">
+      <c r="K43" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="C44" s="14">
         <v>43206</v>
@@ -1378,22 +1378,22 @@
         <v>50</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="18">
         <v>43195</v>
       </c>
       <c r="H44" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="J44" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="K44" s="21">
         <v>43263</v>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="22">
         <v>43227</v>
@@ -1414,13 +1414,13 @@
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K45" s="21">
         <v>43263</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="22">
         <v>43237</v>
@@ -1441,19 +1441,19 @@
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" s="18">
         <v>43235</v>
       </c>
       <c r="H46" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="J46" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="K46" s="21">
         <v>43263</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C47" s="22">
         <v>43194</v>
@@ -1473,22 +1473,22 @@
         <v>27</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" s="18">
         <v>43250</v>
       </c>
       <c r="H47" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="J47" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="K47" s="21">
         <v>43263</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" s="22">
         <v>43194</v>
@@ -1508,18 +1508,18 @@
         <v>22</v>
       </c>
       <c r="E48" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="G48" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K48" s="21">
         <v>43263</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C49" s="22">
         <v>43194</v>
@@ -1539,29 +1539,29 @@
         <v>71</v>
       </c>
       <c r="E49" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="G49" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C50" s="22">
         <v>43194</v>
@@ -1570,13 +1570,13 @@
         <v>142</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1585,46 +1585,46 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G51" s="18">
         <v>43217</v>
       </c>
       <c r="H51" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="18">
         <v>43235</v>
       </c>
       <c r="H52" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
@@ -1639,45 +1639,45 @@
     </row>
     <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="D54" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="E54" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="F54" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="G54" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J54" s="11" t="s">
+      <c r="K54" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="14">
         <v>43206</v>
@@ -1686,22 +1686,22 @@
         <v>50</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G55" s="18">
         <v>43195</v>
       </c>
       <c r="H55" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I55" s="19" t="s">
+      <c r="J55" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="J55" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="K55" s="21">
         <v>43263</v>
@@ -1709,10 +1709,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="22">
         <v>43227</v>
@@ -1721,16 +1721,16 @@
         <v>32.5</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K56" s="21">
         <v>43263</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="22">
         <v>43237</v>
@@ -1750,22 +1750,22 @@
         <v>60</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" s="18">
         <v>43235</v>
       </c>
       <c r="H57" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I57" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="J57" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K57" s="21">
         <v>43263</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C58" s="22">
         <v>43194</v>
@@ -1785,22 +1785,22 @@
         <v>27</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" s="18">
         <v>43250</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I58" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J58" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="K58" s="21">
         <v>43263</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59" s="22">
         <v>43194</v>
@@ -1820,18 +1820,18 @@
         <v>22</v>
       </c>
       <c r="E59" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="G59" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K59" s="21">
         <v>43263</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="22">
         <v>43194</v>
@@ -1851,29 +1851,29 @@
         <v>71</v>
       </c>
       <c r="E60" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="G60" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" s="22">
         <v>43194</v>
@@ -1882,13 +1882,13 @@
         <v>142</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -1897,46 +1897,46 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G62" s="18">
         <v>43217</v>
       </c>
       <c r="H62" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I62" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G63" s="18">
         <v>43235</v>
       </c>
       <c r="H63" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
@@ -1951,45 +1951,45 @@
     </row>
     <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="E65" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="F65" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="G65" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G65" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J65" s="11" t="s">
+      <c r="K65" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="14">
         <v>43206</v>
@@ -1998,22 +1998,22 @@
         <v>50</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G66" s="18">
         <v>43195</v>
       </c>
       <c r="H66" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I66" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I66" s="19" t="s">
+      <c r="J66" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="J66" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="K66" s="21">
         <v>43263</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="22">
         <v>43227</v>
@@ -2033,16 +2033,16 @@
         <v>43</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K67" s="21">
         <v>43263</v>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="22">
         <v>43237</v>
@@ -2062,22 +2062,22 @@
         <v>60</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" s="18">
         <v>43235</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K68" s="21">
         <v>43263</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C69" s="22">
         <v>43194</v>
@@ -2097,22 +2097,22 @@
         <v>27</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" s="18">
         <v>43250</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I69" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="J69" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="K69" s="21">
         <v>43263</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C70" s="22">
         <v>43194</v>
@@ -2132,22 +2132,22 @@
         <v>22</v>
       </c>
       <c r="E70" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="G70" s="18">
         <v>43217</v>
       </c>
       <c r="H70" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I70" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I70" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="J70" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K70" s="21">
         <v>43263</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C71" s="22">
         <v>43194</v>
@@ -2167,33 +2167,33 @@
         <v>71</v>
       </c>
       <c r="E71" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="G71" s="18">
         <v>43235</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K71" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C72" s="22">
         <v>43194</v>
@@ -2202,65 +2202,65 @@
         <v>142</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G72" s="18">
         <v>43250</v>
       </c>
       <c r="H72" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I72" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
       <c r="F73" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G73" s="18">
         <v>43217</v>
       </c>
       <c r="H73" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I73" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G74" s="18">
         <v>43235</v>
       </c>
       <c r="H74" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I74" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="I74" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="J74" s="20"/>
       <c r="K74" s="20"/>
@@ -2283,45 +2283,45 @@
     </row>
     <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="D77" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="E77" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="F77" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="G77" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G77" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J77" s="11" t="s">
+      <c r="K77" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="14">
         <v>43206</v>
@@ -2330,22 +2330,22 @@
         <v>50</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G78" s="18">
         <v>43195</v>
       </c>
       <c r="H78" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I78" s="19" t="s">
+      <c r="J78" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="J78" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="K78" s="21">
         <v>43263</v>
@@ -2353,10 +2353,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="22">
         <v>43227</v>
@@ -2366,13 +2366,13 @@
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K79" s="21">
         <v>43263</v>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" s="22">
         <v>43237</v>
@@ -2393,19 +2393,19 @@
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G80" s="18">
         <v>43235</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I80" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J80" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="J80" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="K80" s="21">
         <v>43263</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C81" s="22">
         <v>43194</v>
@@ -2425,22 +2425,22 @@
         <v>27</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G81" s="18">
         <v>43250</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I81" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J81" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="J81" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="K81" s="21">
         <v>43263</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C82" s="22">
         <v>43194</v>
@@ -2460,22 +2460,22 @@
         <v>22</v>
       </c>
       <c r="E82" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="G82" s="18">
         <v>43217</v>
       </c>
       <c r="H82" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I82" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="J82" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K82" s="21">
         <v>43263</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="22">
         <v>43194</v>
@@ -2495,33 +2495,33 @@
         <v>71</v>
       </c>
       <c r="E83" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="G83" s="18">
         <v>43235</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J83" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K83" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C84" s="22">
         <v>43194</v>
@@ -2530,65 +2530,65 @@
         <v>142</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G84" s="18">
         <v>43250</v>
       </c>
       <c r="H84" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I84" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G85" s="18">
         <v>43217</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G86" s="18">
         <v>43235</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
